--- a/documentation/refactor_notes/overhaul_of_xldict_and_related/refactor_analysis.xlsx
+++ b/documentation/refactor_notes/overhaul_of_xldict_and_related/refactor_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\tonyh\git_repos\feedback_portal\documentation\refactor_notes\overhaul_of_xldict_and_related\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEDD8520-24F2-4D25-B7B1-557D35BB07B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44EC11B-DD8D-4750-80AA-2F6ED245EA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3969" yWindow="1166" windowWidth="25491" windowHeight="14991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6377" yWindow="1080" windowWidth="25492" windowHeight="14991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
